--- a/funds/Interval/var_data_INDSH_20240221.xlsx
+++ b/funds/Interval/var_data_INDSH_20240221.xlsx
@@ -4612,7 +4612,7 @@
         <v>26</v>
       </c>
       <c r="F178">
-        <v>-0.0006242025474887192</v>
+        <v>-0.0006242025474887201</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4712,7 +4712,7 @@
         <v>31</v>
       </c>
       <c r="F183">
-        <v>-4.390163120650617E-05</v>
+        <v>-4.390163120650704E-05</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4892,7 +4892,7 @@
         <v>40</v>
       </c>
       <c r="F192">
-        <v>-0.0002354763109629907</v>
+        <v>-0.0002354763109629916</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4912,7 +4912,7 @@
         <v>41</v>
       </c>
       <c r="F193">
-        <v>-0.0002063130994208037</v>
+        <v>-0.0002063130994208046</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4932,7 +4932,7 @@
         <v>42</v>
       </c>
       <c r="F194">
-        <v>-0.0001388204445296306</v>
+        <v>-0.0001388204445296314</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4992,7 +4992,7 @@
         <v>45</v>
       </c>
       <c r="F197">
-        <v>-0.0001453941066047598</v>
+        <v>-0.000145394106604759</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5012,7 +5012,7 @@
         <v>46</v>
       </c>
       <c r="F198">
-        <v>-5.319225961460897E-05</v>
+        <v>-5.319225961460984E-05</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5092,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="F202">
-        <v>-3.0429625889449E-05</v>
+        <v>-3.042962588944986E-05</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5132,7 +5132,7 @@
         <v>52</v>
       </c>
       <c r="F204">
-        <v>0.000548005418823533</v>
+        <v>0.0005480054188235339</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5152,7 +5152,7 @@
         <v>53</v>
       </c>
       <c r="F205">
-        <v>-0.0001353399297363781</v>
+        <v>-0.000135339929736379</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5332,7 +5332,7 @@
         <v>62</v>
       </c>
       <c r="F214">
-        <v>0.0001555354376506623</v>
+        <v>0.0001555354376506614</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5372,7 +5372,7 @@
         <v>64</v>
       </c>
       <c r="F216">
-        <v>0.0006077656474932401</v>
+        <v>0.000607765647493241</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5392,7 +5392,7 @@
         <v>65</v>
       </c>
       <c r="F217">
-        <v>-0.0003049382887594715</v>
+        <v>-0.0003049382887594723</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5492,7 +5492,7 @@
         <v>70</v>
       </c>
       <c r="F222">
-        <v>-0.0004945773946473863</v>
+        <v>-0.0004945773946473872</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9672,7 +9672,7 @@
         <v>26</v>
       </c>
       <c r="F431">
-        <v>-0.0008828214224151747</v>
+        <v>-0.0008828214224151764</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9772,7 +9772,7 @@
         <v>31</v>
       </c>
       <c r="F436">
-        <v>-6.209090408874907E-05</v>
+        <v>-6.20909040887508E-05</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9852,7 +9852,7 @@
         <v>35</v>
       </c>
       <c r="F440">
-        <v>-7.484862362461958E-05</v>
+        <v>-7.484862362462132E-05</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9952,7 +9952,7 @@
         <v>40</v>
       </c>
       <c r="F445">
-        <v>-0.0003330385827897998</v>
+        <v>-0.0003330385827898016</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -9972,7 +9972,7 @@
         <v>41</v>
       </c>
       <c r="F446">
-        <v>-0.0002917925032929307</v>
+        <v>-0.0002917925032929324</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9992,7 +9992,7 @@
         <v>42</v>
       </c>
       <c r="F447">
-        <v>-0.0001963363699699905</v>
+        <v>-0.0001963363699699922</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10052,7 +10052,7 @@
         <v>45</v>
       </c>
       <c r="F450">
-        <v>-0.0002056336240856462</v>
+        <v>-0.0002056336240856445</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10092,7 +10092,7 @@
         <v>47</v>
       </c>
       <c r="F452">
-        <v>-0.0001954657525639319</v>
+        <v>-0.0001954657525639301</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10152,7 +10152,7 @@
         <v>50</v>
       </c>
       <c r="F455">
-        <v>-4.303719316648726E-05</v>
+        <v>-4.303719316648899E-05</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -10172,7 +10172,7 @@
         <v>51</v>
       </c>
       <c r="F456">
-        <v>0.0003669759139608942</v>
+        <v>0.0003669759139608934</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -10192,7 +10192,7 @@
         <v>52</v>
       </c>
       <c r="F457">
-        <v>0.0007750543878479706</v>
+        <v>0.0007750543878479715</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -10212,7 +10212,7 @@
         <v>53</v>
       </c>
       <c r="F458">
-        <v>-0.0001914138123276388</v>
+        <v>-0.0001914138123276406</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -10392,7 +10392,7 @@
         <v>62</v>
       </c>
       <c r="F467">
-        <v>0.0002199766996388366</v>
+        <v>0.0002199766996388358</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -10432,7 +10432,7 @@
         <v>64</v>
       </c>
       <c r="F469">
-        <v>0.0008595744050928543</v>
+        <v>0.0008595744050928552</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -10452,7 +10452,7 @@
         <v>65</v>
       </c>
       <c r="F470">
-        <v>-0.0004312799665982647</v>
+        <v>-0.0004312799665982664</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -10852,7 +10852,7 @@
         <v>85</v>
       </c>
       <c r="F490">
-        <v>0.0003022002614665401</v>
+        <v>0.0003022002614665393</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -12612,7 +12612,7 @@
         <v>172</v>
       </c>
       <c r="F578">
-        <v>0.0005306425123982649</v>
+        <v>0.000530642512398265</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -14592,7 +14592,7 @@
         <v>103</v>
       </c>
       <c r="F677">
-        <v>-3.0429625889449E-05</v>
+        <v>-3.042962588944986E-05</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14932,7 +14932,7 @@
         <v>120</v>
       </c>
       <c r="F694">
-        <v>-4.390163120650617E-05</v>
+        <v>-4.390163120650704E-05</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -15172,7 +15172,7 @@
         <v>132</v>
       </c>
       <c r="F706">
-        <v>-0.0002063130994208037</v>
+        <v>-0.0002063130994208046</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -15212,7 +15212,7 @@
         <v>134</v>
       </c>
       <c r="F708">
-        <v>-0.0001388204445296306</v>
+        <v>-0.0001388204445296314</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -15272,7 +15272,7 @@
         <v>137</v>
       </c>
       <c r="F711">
-        <v>-0.0001453941066047598</v>
+        <v>-0.000145394106604759</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -15352,7 +15352,7 @@
         <v>141</v>
       </c>
       <c r="F715">
-        <v>0.0001555354376506623</v>
+        <v>0.0001555354376506614</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -15372,7 +15372,7 @@
         <v>142</v>
       </c>
       <c r="F716">
-        <v>-5.319225961460897E-05</v>
+        <v>-5.319225961460984E-05</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -15672,7 +15672,7 @@
         <v>157</v>
       </c>
       <c r="F731">
-        <v>-0.0004945773946473863</v>
+        <v>-0.0004945773946473872</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15712,7 +15712,7 @@
         <v>159</v>
       </c>
       <c r="F733">
-        <v>0.000548005418823533</v>
+        <v>0.0005480054188235339</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15772,7 +15772,7 @@
         <v>162</v>
       </c>
       <c r="F736">
-        <v>-0.0001353399297363781</v>
+        <v>-0.000135339929736379</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15912,7 +15912,7 @@
         <v>169</v>
       </c>
       <c r="F743">
-        <v>-0.0006242025474887192</v>
+        <v>-0.0006242025474887201</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -16152,7 +16152,7 @@
         <v>181</v>
       </c>
       <c r="F755">
-        <v>0.0006077656474932401</v>
+        <v>0.000607765647493241</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -16192,7 +16192,7 @@
         <v>183</v>
       </c>
       <c r="F757">
-        <v>-0.0003049382887594715</v>
+        <v>-0.0003049382887594723</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -16252,7 +16252,7 @@
         <v>186</v>
       </c>
       <c r="F760">
-        <v>-0.0002354763109629907</v>
+        <v>-0.0002354763109629916</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -17672,7 +17672,7 @@
         <v>172</v>
       </c>
       <c r="F831">
-        <v>0.0007504977021867464</v>
+        <v>0.0007504977021867465</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -19652,7 +19652,7 @@
         <v>103</v>
       </c>
       <c r="F930">
-        <v>-4.303719316648726E-05</v>
+        <v>-4.303719316648899E-05</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19792,7 +19792,7 @@
         <v>110</v>
       </c>
       <c r="F937">
-        <v>-7.484862362461958E-05</v>
+        <v>-7.484862362462132E-05</v>
       </c>
     </row>
     <row r="938" spans="1:6">
@@ -19992,7 +19992,7 @@
         <v>120</v>
       </c>
       <c r="F947">
-        <v>-6.209090408874907E-05</v>
+        <v>-6.20909040887508E-05</v>
       </c>
     </row>
     <row r="948" spans="1:6">
@@ -20232,7 +20232,7 @@
         <v>132</v>
       </c>
       <c r="F959">
-        <v>-0.0002917925032929307</v>
+        <v>-0.0002917925032929324</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -20272,7 +20272,7 @@
         <v>134</v>
       </c>
       <c r="F961">
-        <v>-0.0001963363699699905</v>
+        <v>-0.0001963363699699922</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -20332,7 +20332,7 @@
         <v>137</v>
       </c>
       <c r="F964">
-        <v>-0.0002056336240856462</v>
+        <v>-0.0002056336240856445</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -20412,7 +20412,7 @@
         <v>141</v>
       </c>
       <c r="F968">
-        <v>0.0002199766996388366</v>
+        <v>0.0002199766996388358</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -20572,7 +20572,7 @@
         <v>149</v>
       </c>
       <c r="F976">
-        <v>-0.0001954657525639319</v>
+        <v>-0.0001954657525639301</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -20672,7 +20672,7 @@
         <v>154</v>
       </c>
       <c r="F981">
-        <v>0.0003669759139608942</v>
+        <v>0.0003669759139608934</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -20772,7 +20772,7 @@
         <v>159</v>
       </c>
       <c r="F986">
-        <v>0.0007750543878479706</v>
+        <v>0.0007750543878479715</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20832,7 +20832,7 @@
         <v>162</v>
       </c>
       <c r="F989">
-        <v>-0.0001914138123276388</v>
+        <v>-0.0001914138123276406</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20972,7 +20972,7 @@
         <v>169</v>
       </c>
       <c r="F996">
-        <v>-0.0008828214224151747</v>
+        <v>-0.0008828214224151764</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -21132,7 +21132,7 @@
         <v>177</v>
       </c>
       <c r="F1004">
-        <v>0.0003022002614665401</v>
+        <v>0.0003022002614665393</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
@@ -21212,7 +21212,7 @@
         <v>181</v>
       </c>
       <c r="F1008">
-        <v>0.0008595744050928543</v>
+        <v>0.0008595744050928552</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -21252,7 +21252,7 @@
         <v>183</v>
       </c>
       <c r="F1010">
-        <v>-0.0004312799665982647</v>
+        <v>-0.0004312799665982664</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -21312,7 +21312,7 @@
         <v>186</v>
       </c>
       <c r="F1013">
-        <v>-0.0003330385827897998</v>
+        <v>-0.0003330385827898016</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -21572,7 +21572,7 @@
         <v>191</v>
       </c>
       <c r="F1026">
-        <v>0.006495346920852144</v>
+        <v>0.006495346920852146</v>
       </c>
     </row>
     <row r="1027" spans="1:6">
@@ -21892,7 +21892,7 @@
         <v>191</v>
       </c>
       <c r="F1042">
-        <v>0.002592828292169642</v>
+        <v>0.002592828292169641</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -21952,7 +21952,7 @@
         <v>194</v>
       </c>
       <c r="F1045">
-        <v>-0.0001388204445296306</v>
+        <v>-0.0001388204445296314</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -22072,7 +22072,7 @@
         <v>191</v>
       </c>
       <c r="F1051">
-        <v>0.009186491517563592</v>
+        <v>0.009186491517563594</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -22392,7 +22392,7 @@
         <v>191</v>
       </c>
       <c r="F1067">
-        <v>0.003667085900531148</v>
+        <v>0.003667085900531147</v>
       </c>
     </row>
     <row r="1068" spans="1:6">
@@ -22452,7 +22452,7 @@
         <v>194</v>
       </c>
       <c r="F1070">
-        <v>-0.0001963363699699905</v>
+        <v>-0.0001963363699699922</v>
       </c>
     </row>
     <row r="1071" spans="1:6">
@@ -23592,7 +23592,7 @@
         <v>203</v>
       </c>
       <c r="F1127">
-        <v>0.0008820476626506544</v>
+        <v>0.0008820476626506535</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -23652,7 +23652,7 @@
         <v>206</v>
       </c>
       <c r="F1130">
-        <v>-0.0001388204445296306</v>
+        <v>-0.0001388204445296314</v>
       </c>
     </row>
     <row r="1131" spans="1:6">
@@ -23792,7 +23792,7 @@
         <v>213</v>
       </c>
       <c r="F1137">
-        <v>0.0002809201101407269</v>
+        <v>0.0002809201101407277</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
@@ -24992,7 +24992,7 @@
         <v>203</v>
       </c>
       <c r="F1197">
-        <v>0.001247496626394818</v>
+        <v>0.001247496626394817</v>
       </c>
     </row>
     <row r="1198" spans="1:6">
@@ -25052,7 +25052,7 @@
         <v>206</v>
       </c>
       <c r="F1200">
-        <v>-0.0001963363699699905</v>
+        <v>-0.0001963363699699922</v>
       </c>
     </row>
     <row r="1201" spans="1:6">
@@ -25192,7 +25192,7 @@
         <v>213</v>
       </c>
       <c r="F1207">
-        <v>0.0003973106040935283</v>
+        <v>0.0003973106040935292</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -25772,7 +25772,7 @@
         <v>219</v>
       </c>
       <c r="F1236">
-        <v>-0.0004167559628220525</v>
+        <v>-0.0004167559628220508</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
